--- a/dataSet/Tinh toan.xlsx
+++ b/dataSet/Tinh toan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="9780" windowHeight="8760" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9780" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="abs" sheetId="1" r:id="rId1"/>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6319,8 +6319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6372,7 +6372,7 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <f>ROUND(B2*100/C2,2)</f>
+        <f t="shared" ref="D2:D36" si="0">ROUND(B2*100/C2,2)</f>
         <v>50</v>
       </c>
       <c r="G2" s="3">
@@ -6402,7 +6402,7 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <f>ROUND(B3*100/C3,2)</f>
+        <f t="shared" si="0"/>
         <v>76.92</v>
       </c>
       <c r="G3" s="3">
@@ -6413,7 +6413,7 @@
         <v>185</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I6" si="0">SUM(C3:C9)</f>
+        <f>SUM(C3:C9)</f>
         <v>817</v>
       </c>
       <c r="J3">
@@ -6432,7 +6432,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <f>ROUND(B4*100/C4,2)</f>
+        <f t="shared" si="0"/>
         <v>65.38</v>
       </c>
       <c r="G4" s="3">
@@ -6443,7 +6443,7 @@
         <v>187</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I3:I6" si="2">SUM(C4:C10)</f>
         <v>817</v>
       </c>
       <c r="J4">
@@ -6462,7 +6462,7 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <f>ROUND(B5*100/C5,2)</f>
+        <f t="shared" si="0"/>
         <v>71.430000000000007</v>
       </c>
       <c r="G5" s="3">
@@ -6473,7 +6473,7 @@
         <v>194</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>817</v>
       </c>
       <c r="J5">
@@ -6492,7 +6492,7 @@
         <v>148</v>
       </c>
       <c r="D6">
-        <f>ROUND(B6*100/C6,2)</f>
+        <f t="shared" si="0"/>
         <v>8.7799999999999994</v>
       </c>
       <c r="G6" s="3">
@@ -6503,7 +6503,7 @@
         <v>148</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>817</v>
       </c>
       <c r="J6">
@@ -6522,7 +6522,7 @@
         <v>204</v>
       </c>
       <c r="D7">
-        <f>ROUND(B7*100/C7,2)</f>
+        <f t="shared" si="0"/>
         <v>25.49</v>
       </c>
     </row>
@@ -6537,7 +6537,7 @@
         <v>350</v>
       </c>
       <c r="D8">
-        <f>ROUND(B8*100/C8,2)</f>
+        <f t="shared" si="0"/>
         <v>32.86</v>
       </c>
     </row>
@@ -6552,7 +6552,7 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <f>ROUND(B9*100/C9,2)</f>
+        <f t="shared" si="0"/>
         <v>45.45</v>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
         <v>39</v>
       </c>
       <c r="D10">
-        <f>ROUND(B10*100/C10,2)</f>
+        <f t="shared" si="0"/>
         <v>61.54</v>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
         <v>26</v>
       </c>
       <c r="D11">
-        <f>ROUND(B11*100/C11,2)</f>
+        <f t="shared" si="0"/>
         <v>61.54</v>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
         <v>28</v>
       </c>
       <c r="D12">
-        <f>ROUND(B12*100/C12,2)</f>
+        <f t="shared" si="0"/>
         <v>71.430000000000007</v>
       </c>
     </row>
@@ -6612,7 +6612,7 @@
         <v>148</v>
       </c>
       <c r="D13">
-        <f>ROUND(B13*100/C13,2)</f>
+        <f t="shared" si="0"/>
         <v>8.7799999999999994</v>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
         <v>204</v>
       </c>
       <c r="D14">
-        <f>ROUND(B14*100/C14,2)</f>
+        <f t="shared" si="0"/>
         <v>21.57</v>
       </c>
     </row>
@@ -6642,7 +6642,7 @@
         <v>350</v>
       </c>
       <c r="D15">
-        <f>ROUND(B15*100/C15,2)</f>
+        <f t="shared" si="0"/>
         <v>16.57</v>
       </c>
     </row>
@@ -6657,7 +6657,7 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <f>ROUND(B16*100/C16,2)</f>
+        <f t="shared" si="0"/>
         <v>45.45</v>
       </c>
     </row>
@@ -6672,7 +6672,7 @@
         <v>39</v>
       </c>
       <c r="D17">
-        <f>ROUND(B17*100/C17,2)</f>
+        <f t="shared" si="0"/>
         <v>61.54</v>
       </c>
     </row>
@@ -6687,7 +6687,7 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <f>ROUND(B18*100/C18,2)</f>
+        <f t="shared" si="0"/>
         <v>61.54</v>
       </c>
     </row>
@@ -6702,7 +6702,7 @@
         <v>28</v>
       </c>
       <c r="D19">
-        <f>ROUND(B19*100/C19,2)</f>
+        <f t="shared" si="0"/>
         <v>71.430000000000007</v>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
         <v>148</v>
       </c>
       <c r="D20">
-        <f>ROUND(B20*100/C20,2)</f>
+        <f t="shared" si="0"/>
         <v>8.7799999999999994</v>
       </c>
     </row>
@@ -6732,7 +6732,7 @@
         <v>204</v>
       </c>
       <c r="D21">
-        <f>ROUND(B21*100/C21,2)</f>
+        <f t="shared" si="0"/>
         <v>21.57</v>
       </c>
     </row>
@@ -6747,7 +6747,7 @@
         <v>350</v>
       </c>
       <c r="D22">
-        <f>ROUND(B22*100/C22,2)</f>
+        <f t="shared" si="0"/>
         <v>17.14</v>
       </c>
     </row>
@@ -6762,7 +6762,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <f>ROUND(B23*100/C23,2)</f>
+        <f t="shared" si="0"/>
         <v>45.45</v>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
         <v>39</v>
       </c>
       <c r="D24">
-        <f>ROUND(B24*100/C24,2)</f>
+        <f t="shared" si="0"/>
         <v>71.790000000000006</v>
       </c>
     </row>
@@ -6792,7 +6792,7 @@
         <v>26</v>
       </c>
       <c r="D25">
-        <f>ROUND(B25*100/C25,2)</f>
+        <f t="shared" si="0"/>
         <v>76.92</v>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
         <v>28</v>
       </c>
       <c r="D26">
-        <f>ROUND(B26*100/C26,2)</f>
+        <f t="shared" si="0"/>
         <v>42.86</v>
       </c>
     </row>
@@ -6822,7 +6822,7 @@
         <v>148</v>
       </c>
       <c r="D27">
-        <f>ROUND(B27*100/C27,2)</f>
+        <f t="shared" si="0"/>
         <v>6.76</v>
       </c>
     </row>
@@ -6837,7 +6837,7 @@
         <v>204</v>
       </c>
       <c r="D28">
-        <f>ROUND(B28*100/C28,2)</f>
+        <f t="shared" si="0"/>
         <v>19.12</v>
       </c>
     </row>
@@ -6852,7 +6852,7 @@
         <v>350</v>
       </c>
       <c r="D29">
-        <f>ROUND(B29*100/C29,2)</f>
+        <f t="shared" si="0"/>
         <v>21.43</v>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
         <v>22</v>
       </c>
       <c r="D30">
-        <f>ROUND(B30*100/C30,2)</f>
+        <f t="shared" si="0"/>
         <v>40.909999999999997</v>
       </c>
     </row>
@@ -6882,7 +6882,7 @@
         <v>39</v>
       </c>
       <c r="D31">
-        <f>ROUND(B31*100/C31,2)</f>
+        <f t="shared" si="0"/>
         <v>56.41</v>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
         <v>26</v>
       </c>
       <c r="D32">
-        <f>ROUND(B32*100/C32,2)</f>
+        <f t="shared" si="0"/>
         <v>42.31</v>
       </c>
     </row>
@@ -6912,7 +6912,7 @@
         <v>28</v>
       </c>
       <c r="D33">
-        <f>ROUND(B33*100/C33,2)</f>
+        <f t="shared" si="0"/>
         <v>35.71</v>
       </c>
     </row>
@@ -6927,7 +6927,7 @@
         <v>148</v>
       </c>
       <c r="D34">
-        <f>ROUND(B34*100/C34,2)</f>
+        <f t="shared" si="0"/>
         <v>6.76</v>
       </c>
     </row>
@@ -6942,7 +6942,7 @@
         <v>204</v>
       </c>
       <c r="D35">
-        <f>ROUND(B35*100/C35,2)</f>
+        <f t="shared" si="0"/>
         <v>18.14</v>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
         <v>350</v>
       </c>
       <c r="D36">
-        <f>ROUND(B36*100/C36,2)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
